--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -2270,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>213.84</v>
+        <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>29305.98</v>
+        <v>11.6809</v>
       </c>
       <c r="F2" t="n">
-        <v>427.68</v>
+        <v>0.171072</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4276.8</v>
+        <v>1.71072</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>209.79</v>
+        <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>5432.11</v>
+        <v>2.181924</v>
       </c>
       <c r="F3" t="n">
-        <v>419.58</v>
+        <v>0.167832</v>
       </c>
       <c r="G3" t="n">
         <v>600</v>
@@ -2314,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>4195.8</v>
+        <v>1.67832</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2328,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>210.04</v>
+        <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>2355.6</v>
+        <v>0.87731</v>
       </c>
       <c r="F4" t="n">
-        <v>420.08</v>
+        <v>0.168032</v>
       </c>
       <c r="G4" t="n">
         <v>150</v>
@@ -2343,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>4200.8</v>
+        <v>1.68032</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>208.93</v>
+        <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>3612.375</v>
+        <v>1.4193</v>
       </c>
       <c r="F5" t="n">
-        <v>417.86</v>
+        <v>0.167144</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4178.6</v>
+        <v>1.67144</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2386,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>204.98</v>
+        <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>2395.975</v>
+        <v>0.957588</v>
       </c>
       <c r="F6" t="n">
-        <v>409.96</v>
+        <v>0.163984</v>
       </c>
       <c r="G6" t="n">
         <v>300</v>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>4099.599999999999</v>
+        <v>1.63984</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>205.44</v>
+        <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>719.5799999999999</v>
+        <v>0.283008</v>
       </c>
       <c r="F7" t="n">
-        <v>410.8800000000001</v>
+        <v>0.164352</v>
       </c>
       <c r="G7" t="n">
         <v>90</v>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>4108.8</v>
+        <v>1.64352</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>204.56</v>
+        <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>221.76</v>
+        <v>0.099</v>
       </c>
       <c r="F8" t="n">
-        <v>409.12</v>
+        <v>0.163648</v>
       </c>
       <c r="G8" t="n">
         <v>30</v>
@@ -2459,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>4091.2</v>
+        <v>1.63648</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2470,16 +2470,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D9" t="n">
-        <v>216.41</v>
+        <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>2163.94</v>
+        <v>0.8604360000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>432.82</v>
+        <v>0.173128</v>
       </c>
       <c r="G9" t="n">
         <v>420</v>
@@ -2488,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4328.2</v>
+        <v>1.73128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2499,16 +2499,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D10" t="n">
-        <v>216</v>
+        <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>1301.4</v>
+        <v>0.51624</v>
       </c>
       <c r="F10" t="n">
-        <v>432</v>
+        <v>0.1728</v>
       </c>
       <c r="G10" t="n">
         <v>300</v>
@@ -2517,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4320</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2531,13 +2531,13 @@
         <v>1875</v>
       </c>
       <c r="D11" t="n">
-        <v>214.89</v>
+        <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>1894.725</v>
+        <v>0.75726</v>
       </c>
       <c r="F11" t="n">
-        <v>429.78</v>
+        <v>0.171912</v>
       </c>
       <c r="G11" t="n">
         <v>900</v>
@@ -2546,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4297.8</v>
+        <v>1.71912</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2557,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D12" t="n">
-        <v>216.3</v>
+        <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>3113.825</v>
+        <v>1.22342</v>
       </c>
       <c r="F12" t="n">
-        <v>432.6</v>
+        <v>0.17304</v>
       </c>
       <c r="G12" t="n">
         <v>210</v>
@@ -2575,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>4326</v>
+        <v>1.7304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3441</v>
+        <v>3420</v>
       </c>
       <c r="D13" t="n">
-        <v>204.82</v>
+        <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>31515.29999999997</v>
+        <v>12.56149999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>409.64</v>
+        <v>0.163856</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4096.4</v>
+        <v>1.63856</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2615,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="D14" t="n">
-        <v>205.25</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>12120.545</v>
+        <v>4.868478000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5</v>
+        <v>0.1642</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4105</v>
+        <v>1.642</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2644,16 +2644,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="D15" t="n">
-        <v>202.49</v>
+        <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>2299.44</v>
+        <v>0.856394</v>
       </c>
       <c r="F15" t="n">
-        <v>404.98</v>
+        <v>0.161992</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4049.8</v>
+        <v>1.61992</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2673,16 +2673,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D16" t="n">
-        <v>200.38</v>
+        <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>2222.35</v>
+        <v>0.8731599999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>400.76</v>
+        <v>0.160304</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4007.6</v>
+        <v>1.60304</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2702,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D17" t="n">
-        <v>200.97</v>
+        <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>3495.375</v>
+        <v>1.39698</v>
       </c>
       <c r="F17" t="n">
-        <v>401.94</v>
+        <v>0.160776</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4019.4</v>
+        <v>1.60776</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2731,16 +2731,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D18" t="n">
-        <v>201.42</v>
+        <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>1127.7</v>
+        <v>0.44352</v>
       </c>
       <c r="F18" t="n">
-        <v>402.84</v>
+        <v>0.161136</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4028.400000000001</v>
+        <v>1.61136</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2760,16 +2760,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D19" t="n">
-        <v>200.6</v>
+        <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>306.88</v>
+        <v>0.137</v>
       </c>
       <c r="F19" t="n">
-        <v>401.2</v>
+        <v>0.16048</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4012</v>
+        <v>1.6048</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>26.3</v>
+        <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>158128.75</v>
+        <v>62.90960000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>52.6</v>
+        <v>0.02104</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>526</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2821,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>27.92</v>
+        <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>167869</v>
+        <v>66.78464000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>55.84</v>
+        <v>0.022336</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>558.4000000000001</v>
+        <v>0.22336</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2850,13 +2850,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.56</v>
+        <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>207792</v>
+        <v>82.66752000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>69.12</v>
+        <v>0.027648</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>691.2</v>
+        <v>0.27648</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>106.34</v>
+        <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>639369.25</v>
+        <v>254.36528</v>
       </c>
       <c r="F23" t="n">
-        <v>212.68</v>
+        <v>0.08507200000000001</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2126.8</v>
+        <v>0.8507200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2992,34 +2992,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D2" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J2" t="n">
         <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="L2" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D3" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="L3" t="n">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3137,31 +3137,31 @@
         <v>600</v>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="G4" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J4" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="L4" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D5" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
         <v>419</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
         <v>903</v>
       </c>
       <c r="L5" t="n">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,34 +3363,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.875</v>
+        <v>74.625</v>
       </c>
       <c r="D2" t="n">
-        <v>19.25</v>
+        <v>18.375</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.75</v>
+        <v>36.875</v>
       </c>
       <c r="G2" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>52.625</v>
       </c>
       <c r="J2" t="n">
         <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>111.875</v>
+        <v>112.875</v>
       </c>
       <c r="L2" t="n">
-        <v>26.375</v>
+        <v>26</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>112.875</v>
+        <v>113.8125</v>
       </c>
       <c r="D3" t="n">
-        <v>28.875</v>
+        <v>26.4375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>56.8125</v>
+        <v>56.625</v>
       </c>
       <c r="G3" t="n">
-        <v>17.4375</v>
+        <v>17.25</v>
       </c>
       <c r="H3" t="n">
-        <v>5.625</v>
+        <v>6.1875</v>
       </c>
       <c r="I3" t="n">
-        <v>79.125</v>
+        <v>78.5625</v>
       </c>
       <c r="J3" t="n">
-        <v>56.4375</v>
+        <v>56.25</v>
       </c>
       <c r="K3" t="n">
-        <v>170.4375</v>
+        <v>168.9375</v>
       </c>
       <c r="L3" t="n">
-        <v>39.375</v>
+        <v>38.0625</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3508,31 +3508,31 @@
         <v>131.25</v>
       </c>
       <c r="D4" t="n">
-        <v>35.875</v>
+        <v>32.8125</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62.78125</v>
+        <v>65.40625</v>
       </c>
       <c r="G4" t="n">
-        <v>19.46875</v>
+        <v>18.15625</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.78125</v>
       </c>
       <c r="I4" t="n">
-        <v>92.53125</v>
+        <v>90.78125</v>
       </c>
       <c r="J4" t="n">
-        <v>66.28125</v>
+        <v>65.625</v>
       </c>
       <c r="K4" t="n">
-        <v>197.3125</v>
+        <v>196.65625</v>
       </c>
       <c r="L4" t="n">
-        <v>45.71875</v>
+        <v>46.15625</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.75</v>
+        <v>140.390625</v>
       </c>
       <c r="D5" t="n">
-        <v>35.625</v>
+        <v>33.515625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.015625</v>
+        <v>69.84375</v>
       </c>
       <c r="G5" t="n">
-        <v>20.15625</v>
+        <v>22.265625</v>
       </c>
       <c r="H5" t="n">
-        <v>5.625</v>
+        <v>7.734375</v>
       </c>
       <c r="I5" t="n">
         <v>98.203125</v>
       </c>
       <c r="J5" t="n">
-        <v>71.484375</v>
+        <v>70.078125</v>
       </c>
       <c r="K5" t="n">
         <v>211.640625</v>
       </c>
       <c r="L5" t="n">
-        <v>50.390625</v>
+        <v>48.75</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20223</v>
+        <v>20083</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>210437.5</v>
+        <v>209300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>210437.5</v>
+        <v>209300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1984125</v>
+        <v>1973400</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.181924</v>
+        <v>2.178292</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.87731</v>
+        <v>0.92261</v>
       </c>
       <c r="F4" t="n">
         <v>0.168032</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4193</v>
+        <v>1.4364</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.957588</v>
+        <v>0.9503699999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.283008</v>
+        <v>0.2902439999999999</v>
       </c>
       <c r="F7" t="n">
         <v>0.164352</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.099</v>
+        <v>0.08236800000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8604360000000001</v>
+        <v>0.861978</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51624</v>
+        <v>0.52056</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75726</v>
+        <v>0.75453</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.22342</v>
+        <v>1.23816</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.868478000000001</v>
+        <v>4.860374000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.856394</v>
+        <v>0.900614</v>
       </c>
       <c r="F15" t="n">
         <v>0.161992</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8731599999999999</v>
+        <v>0.88368</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.39698</v>
+        <v>1.38645</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.44352</v>
+        <v>0.45486</v>
       </c>
       <c r="F18" t="n">
         <v>0.161136</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137</v>
+        <v>0.113984</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.90960000000001</v>
+        <v>62.98850000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.78464000000001</v>
+        <v>66.86840000000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.66752000000001</v>
+        <v>82.77120000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.36528</v>
+        <v>254.6843</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -2992,34 +2992,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D2" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G2" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D3" t="n">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G3" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="L3" t="n">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D4" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G4" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="L4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D5" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L5" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,34 +3363,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.625</v>
+        <v>75.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.375</v>
+        <v>18.75</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>36.875</v>
+        <v>37.875</v>
       </c>
       <c r="G2" t="n">
-        <v>10.25</v>
+        <v>11.875</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>52.625</v>
+        <v>52.5</v>
       </c>
       <c r="J2" t="n">
-        <v>37</v>
+        <v>37.75</v>
       </c>
       <c r="K2" t="n">
-        <v>112.875</v>
+        <v>112.5</v>
       </c>
       <c r="L2" t="n">
-        <v>26</v>
+        <v>26.625</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>113.8125</v>
+        <v>114.1875</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4375</v>
+        <v>29.8125</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>56.625</v>
+        <v>54.75</v>
       </c>
       <c r="G3" t="n">
-        <v>17.25</v>
+        <v>17.4375</v>
       </c>
       <c r="H3" t="n">
-        <v>6.1875</v>
+        <v>4.6875</v>
       </c>
       <c r="I3" t="n">
-        <v>78.5625</v>
+        <v>79.125</v>
       </c>
       <c r="J3" t="n">
-        <v>56.25</v>
+        <v>56.4375</v>
       </c>
       <c r="K3" t="n">
-        <v>168.9375</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
-        <v>38.0625</v>
+        <v>36.9375</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.25</v>
+        <v>129.71875</v>
       </c>
       <c r="D4" t="n">
-        <v>32.8125</v>
+        <v>33.46875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>65.40625</v>
+        <v>63.65625</v>
       </c>
       <c r="G4" t="n">
-        <v>18.15625</v>
+        <v>19.03125</v>
       </c>
       <c r="H4" t="n">
-        <v>6.78125</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>90.78125</v>
+        <v>91.4375</v>
       </c>
       <c r="J4" t="n">
-        <v>65.625</v>
+        <v>66.0625</v>
       </c>
       <c r="K4" t="n">
-        <v>196.65625</v>
+        <v>196</v>
       </c>
       <c r="L4" t="n">
-        <v>46.15625</v>
+        <v>46.375</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>140.390625</v>
+        <v>138.984375</v>
       </c>
       <c r="D5" t="n">
-        <v>33.515625</v>
+        <v>34.921875</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>69.84375</v>
+        <v>70.078125</v>
       </c>
       <c r="G5" t="n">
-        <v>22.265625</v>
+        <v>20.15625</v>
       </c>
       <c r="H5" t="n">
-        <v>7.734375</v>
+        <v>5.390625</v>
       </c>
       <c r="I5" t="n">
-        <v>98.203125</v>
+        <v>97.734375</v>
       </c>
       <c r="J5" t="n">
-        <v>70.078125</v>
+        <v>70.3125</v>
       </c>
       <c r="K5" t="n">
-        <v>211.640625</v>
+        <v>211.171875</v>
       </c>
       <c r="L5" t="n">
-        <v>48.75</v>
+        <v>51.09375</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20083</v>
+        <v>20174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>209300</v>
+        <v>209562.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>209300</v>
+        <v>209562.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1973400</v>
+        <v>1975875</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.6809</v>
+        <v>11.726</v>
       </c>
       <c r="F2" t="n">
         <v>0.171072</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.178292</v>
+        <v>2.190096</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.92261</v>
+        <v>0.9090200000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.168032</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4364</v>
+        <v>1.46889</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9503699999999999</v>
+        <v>0.9648059999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08236800000000001</v>
+        <v>0.09187200000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>875</v>
+        <v>925</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.861978</v>
+        <v>0.865062</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.52056</v>
+        <v>0.5227200000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1867</v>
+        <v>1993</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75453</v>
+        <v>0.75747</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.23816</v>
+        <v>1.266166</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3419</v>
+        <v>3750</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.56149999999999</v>
+        <v>12.60999999999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.163856</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1254</v>
+        <v>1381</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.860374000000001</v>
+        <v>4.886712000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.900614</v>
+        <v>0.887348</v>
       </c>
       <c r="F15" t="n">
         <v>0.161992</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>454</v>
+        <v>499</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.88368</v>
+        <v>0.903668</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.38645</v>
+        <v>1.40751</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.113984</v>
+        <v>0.127136</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.98850000000001</v>
+        <v>63.39878000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.86840000000001</v>
+        <v>67.30395200000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.77120000000001</v>
+        <v>83.31033600000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.6843</v>
+        <v>256.343204</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3004,22 +3004,22 @@
         <v>303</v>
       </c>
       <c r="G2" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
         <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D3" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="L3" t="n">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D4" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="L4" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D5" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="L5" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.5</v>
+        <v>75.875</v>
       </c>
       <c r="D2" t="n">
-        <v>18.75</v>
+        <v>18.25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3375,22 +3375,22 @@
         <v>37.875</v>
       </c>
       <c r="G2" t="n">
-        <v>11.875</v>
+        <v>11.625</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4.375</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>52.25</v>
       </c>
       <c r="J2" t="n">
-        <v>37.75</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
         <v>112.5</v>
       </c>
       <c r="L2" t="n">
-        <v>26.625</v>
+        <v>25.875</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114.1875</v>
+        <v>113.8125</v>
       </c>
       <c r="D3" t="n">
-        <v>29.8125</v>
+        <v>29.0625</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>54.75</v>
+        <v>54.9375</v>
       </c>
       <c r="G3" t="n">
-        <v>17.4375</v>
+        <v>18.1875</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6875</v>
+        <v>6.375</v>
       </c>
       <c r="I3" t="n">
-        <v>79.125</v>
+        <v>78.5625</v>
       </c>
       <c r="J3" t="n">
-        <v>56.4375</v>
+        <v>56.8125</v>
       </c>
       <c r="K3" t="n">
-        <v>168</v>
+        <v>169.3125</v>
       </c>
       <c r="L3" t="n">
-        <v>36.9375</v>
+        <v>41.0625</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>129.71875</v>
+        <v>131.03125</v>
       </c>
       <c r="D4" t="n">
-        <v>33.46875</v>
+        <v>32.59375</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>63.65625</v>
+        <v>66.28125</v>
       </c>
       <c r="G4" t="n">
-        <v>19.03125</v>
+        <v>19.25</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5.6875</v>
       </c>
       <c r="I4" t="n">
-        <v>91.4375</v>
+        <v>92.3125</v>
       </c>
       <c r="J4" t="n">
-        <v>66.0625</v>
+        <v>65.84375</v>
       </c>
       <c r="K4" t="n">
-        <v>196</v>
+        <v>198.40625</v>
       </c>
       <c r="L4" t="n">
-        <v>46.375</v>
+        <v>47.25</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.984375</v>
+        <v>140.390625</v>
       </c>
       <c r="D5" t="n">
-        <v>34.921875</v>
+        <v>35.625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.078125</v>
+        <v>71.25</v>
       </c>
       <c r="G5" t="n">
-        <v>20.15625</v>
+        <v>19.453125</v>
       </c>
       <c r="H5" t="n">
-        <v>5.390625</v>
+        <v>4.921875</v>
       </c>
       <c r="I5" t="n">
-        <v>97.734375</v>
+        <v>99.375</v>
       </c>
       <c r="J5" t="n">
-        <v>70.3125</v>
+        <v>70.78125</v>
       </c>
       <c r="K5" t="n">
-        <v>211.171875</v>
+        <v>210.234375</v>
       </c>
       <c r="L5" t="n">
-        <v>51.09375</v>
+        <v>50.859375</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20174</v>
+        <v>50627.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>209562.5</v>
+        <v>527318.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>209562.5</v>
+        <v>527318.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1975875</v>
+        <v>4971862.5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.726</v>
+        <v>11.679096</v>
       </c>
       <c r="F2" t="n">
         <v>0.171072</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.190096</v>
+        <v>2.16558</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9090200000000001</v>
+        <v>0.8803300000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.168032</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.46889</v>
+        <v>1.4193</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9648059999999999</v>
+        <v>0.964004</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2902439999999999</v>
+        <v>0.287832</v>
       </c>
       <c r="F7" t="n">
         <v>0.164352</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09187200000000001</v>
+        <v>0.08870400000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.865062</v>
+        <v>0.861464</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5227200000000001</v>
+        <v>0.5149440000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75747</v>
+        <v>0.75726</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.266166</v>
+        <v>1.22342</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3750</v>
+        <v>3739</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.60999999999999</v>
+        <v>12.55955999999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.163856</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.886712000000001</v>
+        <v>4.832010000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.887348</v>
+        <v>0.8593420000000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.161992</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.903668</v>
+        <v>0.8731599999999999</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.40751</v>
+        <v>1.40634</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45486</v>
+        <v>0.45108</v>
       </c>
       <c r="F18" t="n">
         <v>0.161136</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.127136</v>
+        <v>0.122752</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>63.39878000000001</v>
+        <v>62.82544000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>67.30395200000001</v>
+        <v>66.695296</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>83.31033600000001</v>
+        <v>82.55692800000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>256.343204</v>
+        <v>254.024992</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="D2" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3004,22 +3004,22 @@
         <v>303</v>
       </c>
       <c r="G2" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="D3" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G3" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
         <v>419</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K3" t="n">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="L3" t="n">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D4" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G4" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I4" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J4" t="n">
         <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="L4" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D5" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G5" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K5" t="n">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="L5" t="n">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.875</v>
+        <v>74.875</v>
       </c>
       <c r="D2" t="n">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3375,22 +3375,22 @@
         <v>37.875</v>
       </c>
       <c r="G2" t="n">
-        <v>11.625</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.375</v>
+        <v>2.25</v>
       </c>
       <c r="I2" t="n">
-        <v>52.25</v>
+        <v>52.125</v>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>37.25</v>
       </c>
       <c r="K2" t="n">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="L2" t="n">
-        <v>25.875</v>
+        <v>25.75</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>113.8125</v>
+        <v>110.8125</v>
       </c>
       <c r="D3" t="n">
-        <v>29.0625</v>
+        <v>27.9375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>54.9375</v>
+        <v>57.375</v>
       </c>
       <c r="G3" t="n">
-        <v>18.1875</v>
+        <v>16.6875</v>
       </c>
       <c r="H3" t="n">
-        <v>6.375</v>
+        <v>5.8125</v>
       </c>
       <c r="I3" t="n">
         <v>78.5625</v>
       </c>
       <c r="J3" t="n">
-        <v>56.8125</v>
+        <v>55.125</v>
       </c>
       <c r="K3" t="n">
-        <v>169.3125</v>
+        <v>168.375</v>
       </c>
       <c r="L3" t="n">
-        <v>41.0625</v>
+        <v>38.25</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.03125</v>
+        <v>132.125</v>
       </c>
       <c r="D4" t="n">
-        <v>32.59375</v>
+        <v>32.8125</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.28125</v>
+        <v>65.40625</v>
       </c>
       <c r="G4" t="n">
-        <v>19.25</v>
+        <v>18.59375</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6875</v>
+        <v>7.875</v>
       </c>
       <c r="I4" t="n">
-        <v>92.3125</v>
+        <v>91.65625</v>
       </c>
       <c r="J4" t="n">
         <v>65.84375</v>
       </c>
       <c r="K4" t="n">
-        <v>198.40625</v>
+        <v>197.3125</v>
       </c>
       <c r="L4" t="n">
-        <v>47.25</v>
+        <v>47.6875</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>140.390625</v>
+        <v>138.515625</v>
       </c>
       <c r="D5" t="n">
-        <v>35.625</v>
+        <v>32.8125</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.25</v>
+        <v>68.90625</v>
       </c>
       <c r="G5" t="n">
-        <v>19.453125</v>
+        <v>20.625</v>
       </c>
       <c r="H5" t="n">
-        <v>4.921875</v>
+        <v>6.328125</v>
       </c>
       <c r="I5" t="n">
-        <v>99.375</v>
+        <v>98.671875</v>
       </c>
       <c r="J5" t="n">
-        <v>70.78125</v>
+        <v>70.078125</v>
       </c>
       <c r="K5" t="n">
-        <v>210.234375</v>
+        <v>211.40625</v>
       </c>
       <c r="L5" t="n">
-        <v>50.859375</v>
+        <v>47.34375</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50627.5</v>
+        <v>50190</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>527318.75</v>
+        <v>522550</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>527318.75</v>
+        <v>522550</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4971862.5</v>
+        <v>4926900</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.679096</v>
+        <v>11.666468</v>
       </c>
       <c r="F2" t="n">
         <v>0.171072</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.16558</v>
+        <v>2.163764</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8803300000000001</v>
+        <v>0.88486</v>
       </c>
       <c r="F4" t="n">
         <v>0.168032</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4193</v>
+        <v>1.43127</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.964004</v>
+        <v>0.9704199999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.287832</v>
+        <v>0.278988</v>
       </c>
       <c r="F7" t="n">
         <v>0.164352</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08870400000000001</v>
+        <v>0.102168</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.861464</v>
+        <v>0.86095</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5149440000000001</v>
+        <v>0.5192640000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75726</v>
+        <v>0.7539</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.22342</v>
+        <v>1.233738</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3739</v>
+        <v>3727</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.55955999999999</v>
+        <v>12.54597999999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.163856</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.832010000000001</v>
+        <v>4.827958000000002</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8593420000000001</v>
+        <v>0.863764</v>
       </c>
       <c r="F15" t="n">
         <v>0.161992</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8731599999999999</v>
+        <v>0.880524</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.40634</v>
+        <v>1.4157</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45108</v>
+        <v>0.43722</v>
       </c>
       <c r="F18" t="n">
         <v>0.161136</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.122752</v>
+        <v>0.141384</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.82544000000001</v>
+        <v>62.90434000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.695296</v>
+        <v>66.77905600000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.55692800000001</v>
+        <v>82.66060800000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.024992</v>
+        <v>254.344012</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D2" t="n">
         <v>144</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="L2" t="n">
         <v>206</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
         <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="L3" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D4" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G4" t="n">
         <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J4" t="n">
         <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="L4" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" t="n">
         <v>421</v>
       </c>
       <c r="J5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="L5" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.875</v>
+        <v>74.375</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
@@ -3372,22 +3372,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.875</v>
+        <v>37.75</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>11.375</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>3.875</v>
       </c>
       <c r="I2" t="n">
-        <v>52.125</v>
+        <v>51.875</v>
       </c>
       <c r="J2" t="n">
-        <v>37.25</v>
+        <v>37.375</v>
       </c>
       <c r="K2" t="n">
-        <v>113</v>
+        <v>111.75</v>
       </c>
       <c r="L2" t="n">
         <v>25.75</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>110.8125</v>
+        <v>111.75</v>
       </c>
       <c r="D3" t="n">
-        <v>27.9375</v>
+        <v>29.625</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>57.375</v>
+        <v>58.3125</v>
       </c>
       <c r="G3" t="n">
-        <v>16.6875</v>
+        <v>14.8125</v>
       </c>
       <c r="H3" t="n">
         <v>5.8125</v>
       </c>
       <c r="I3" t="n">
-        <v>78.5625</v>
+        <v>79.125</v>
       </c>
       <c r="J3" t="n">
-        <v>55.125</v>
+        <v>56.625</v>
       </c>
       <c r="K3" t="n">
-        <v>168.375</v>
+        <v>169.125</v>
       </c>
       <c r="L3" t="n">
-        <v>38.25</v>
+        <v>40.125</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>132.125</v>
+        <v>131.03125</v>
       </c>
       <c r="D4" t="n">
-        <v>32.8125</v>
+        <v>32.375</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>65.40625</v>
+        <v>66.71875</v>
       </c>
       <c r="G4" t="n">
         <v>18.59375</v>
       </c>
       <c r="H4" t="n">
-        <v>7.875</v>
+        <v>7.65625</v>
       </c>
       <c r="I4" t="n">
-        <v>91.65625</v>
+        <v>91.21875</v>
       </c>
       <c r="J4" t="n">
         <v>65.84375</v>
       </c>
       <c r="K4" t="n">
-        <v>197.3125</v>
+        <v>196.875</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6875</v>
+        <v>46.15625</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.515625</v>
+        <v>138.984375</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8125</v>
+        <v>31.875</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.90625</v>
+        <v>68.4375</v>
       </c>
       <c r="G5" t="n">
-        <v>20.625</v>
+        <v>21.5625</v>
       </c>
       <c r="H5" t="n">
-        <v>6.328125</v>
+        <v>7.5</v>
       </c>
       <c r="I5" t="n">
         <v>98.671875</v>
       </c>
       <c r="J5" t="n">
-        <v>70.078125</v>
+        <v>70.3125</v>
       </c>
       <c r="K5" t="n">
-        <v>211.40625</v>
+        <v>209.53125</v>
       </c>
       <c r="L5" t="n">
-        <v>47.34375</v>
+        <v>48.28125</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50190</v>
+        <v>50347.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>522550</v>
+        <v>523206.25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>522550</v>
+        <v>523206.25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4926900</v>
+        <v>4933087.5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
+++ b/Instances/04_NonStationary_b2_fe25_en_rk50_ll0_l20.xlsx
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.666468</v>
+        <v>11.7303296</v>
       </c>
       <c r="F2" t="n">
         <v>0.171072</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.163764</v>
+        <v>2.1915488</v>
       </c>
       <c r="F3" t="n">
         <v>0.167832</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.88486</v>
+        <v>0.907208</v>
       </c>
       <c r="F4" t="n">
         <v>0.168032</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.43127</v>
+        <v>1.452816</v>
       </c>
       <c r="F5" t="n">
         <v>0.167144</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9704199999999999</v>
+        <v>0.9623999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0.163984</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.278988</v>
+        <v>0.2868672</v>
       </c>
       <c r="F7" t="n">
         <v>0.164352</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.102168</v>
+        <v>0.09757440000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.163648</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.86095</v>
+        <v>0.8622864</v>
       </c>
       <c r="F9" t="n">
         <v>0.173128</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5192640000000001</v>
+        <v>0.5163264000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.1728</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1985</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7539</v>
+        <v>0.762216</v>
       </c>
       <c r="F11" t="n">
         <v>0.171912</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.233738</v>
+        <v>1.2523104</v>
       </c>
       <c r="F12" t="n">
         <v>0.17304</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3727</v>
+        <v>3742</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.54597999999999</v>
+        <v>12.61465599999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.163856</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1374</v>
+        <v>1396</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.827958000000002</v>
+        <v>4.889953600000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.1642</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.863764</v>
+        <v>0.8855792</v>
       </c>
       <c r="F15" t="n">
         <v>0.161992</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.880524</v>
+        <v>0.8937792</v>
       </c>
       <c r="F16" t="n">
         <v>0.160304</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.4157</v>
+        <v>1.404</v>
       </c>
       <c r="F17" t="n">
         <v>0.160776</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43722</v>
+        <v>0.449568</v>
       </c>
       <c r="F18" t="n">
         <v>0.161136</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.141384</v>
+        <v>0.1350272</v>
       </c>
       <c r="F19" t="n">
         <v>0.16048</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.90434000000001</v>
+        <v>63.36406400000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.02104</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.77905600000001</v>
+        <v>67.2670976</v>
       </c>
       <c r="F21" t="n">
         <v>0.022336</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.66060800000001</v>
+        <v>83.2647168</v>
       </c>
       <c r="F22" t="n">
         <v>0.027648</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.344012</v>
+        <v>256.2028352</v>
       </c>
       <c r="F23" t="n">
         <v>0.08507200000000001</v>
@@ -2908,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2992,34 +2992,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G2" t="n">
         <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="L2" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G3" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="L3" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D4" t="n">
         <v>148</v>
@@ -3146,22 +3146,22 @@
         <v>305</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L4" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="D5" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G5" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
         <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="L5" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3265,6 +3265,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>607</v>
+      </c>
+      <c r="D6" t="n">
+        <v>148</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>302</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>418</v>
+      </c>
+      <c r="J6" t="n">
+        <v>301</v>
+      </c>
+      <c r="K6" t="n">
+        <v>902</v>
+      </c>
+      <c r="L6" t="n">
+        <v>202</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3363,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>74.375</v>
+        <v>75.25</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19.625</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.75</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
         <v>11.375</v>
       </c>
       <c r="H2" t="n">
-        <v>3.875</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>51.875</v>
+        <v>52.375</v>
       </c>
       <c r="J2" t="n">
-        <v>37.375</v>
+        <v>37.25</v>
       </c>
       <c r="K2" t="n">
-        <v>111.75</v>
+        <v>114.875</v>
       </c>
       <c r="L2" t="n">
-        <v>25.75</v>
+        <v>28</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>111.75</v>
+        <v>111.9375</v>
       </c>
       <c r="D3" t="n">
-        <v>29.625</v>
+        <v>27.375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>58.3125</v>
+        <v>55.6875</v>
       </c>
       <c r="G3" t="n">
-        <v>14.8125</v>
+        <v>18.1875</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8125</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>79.125</v>
+        <v>78.75</v>
       </c>
       <c r="J3" t="n">
-        <v>56.625</v>
+        <v>55.875</v>
       </c>
       <c r="K3" t="n">
-        <v>169.125</v>
+        <v>170.0625</v>
       </c>
       <c r="L3" t="n">
-        <v>40.125</v>
+        <v>39</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.03125</v>
+        <v>132.5625</v>
       </c>
       <c r="D4" t="n">
         <v>32.375</v>
@@ -3517,22 +3588,22 @@
         <v>66.71875</v>
       </c>
       <c r="G4" t="n">
-        <v>18.59375</v>
+        <v>19.90625</v>
       </c>
       <c r="H4" t="n">
-        <v>7.65625</v>
+        <v>6.5625</v>
       </c>
       <c r="I4" t="n">
-        <v>91.21875</v>
+        <v>92.3125</v>
       </c>
       <c r="J4" t="n">
-        <v>65.84375</v>
+        <v>66.0625</v>
       </c>
       <c r="K4" t="n">
-        <v>196.875</v>
+        <v>197.09375</v>
       </c>
       <c r="L4" t="n">
-        <v>46.15625</v>
+        <v>47.03125</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3647,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.984375</v>
+        <v>141.796875</v>
       </c>
       <c r="D5" t="n">
-        <v>31.875</v>
+        <v>35.625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.4375</v>
+        <v>70.3125</v>
       </c>
       <c r="G5" t="n">
-        <v>21.5625</v>
+        <v>18.984375</v>
       </c>
       <c r="H5" t="n">
         <v>7.5</v>
       </c>
       <c r="I5" t="n">
-        <v>98.671875</v>
+        <v>97.96875</v>
       </c>
       <c r="J5" t="n">
-        <v>70.3125</v>
+        <v>69.140625</v>
       </c>
       <c r="K5" t="n">
-        <v>209.53125</v>
+        <v>212.8125</v>
       </c>
       <c r="L5" t="n">
-        <v>48.28125</v>
+        <v>49.921875</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3636,6 +3707,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>147.0078125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.84375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>73.140625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20.828125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.234375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>101.234375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>72.8984375</v>
+      </c>
+      <c r="K6" t="n">
+        <v>218.453125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>48.921875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3668,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50347.5</v>
+        <v>50274</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523206.25</v>
+        <v>527030</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523206.25</v>
+        <v>527030</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4933087.5</v>
+        <v>4969140</v>
       </c>
     </row>
   </sheetData>
